--- a/iDeLUCS/idelucs_accuracy.xlsx
+++ b/iDeLUCS/idelucs_accuracy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcai/Documents/GitHub/Bruno_barcode/iDeLUCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5921354-E434-2342-8E37-750C801DE9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C881816-78E4-6141-A293-07BFD1FC59C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{03516B60-CBC8-1D4A-BA98-FBB3DD80C6DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>200 mb</t>
   </si>
@@ -60,10 +60,13 @@
     <t>rbcl+matK+ndhF+ITS</t>
   </si>
   <si>
-    <t>plastid+ITS</t>
-  </si>
-  <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>plastid+ITS full assembly</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
 </sst>
 </file>
@@ -417,18 +420,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35AB00F-CD62-1646-A917-E22E3F83448A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -491,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0.28000000000000003</v>
@@ -502,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.53</v>
